--- a/Shortfall_data.xlsx
+++ b/Shortfall_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar\OneDrive - unb.br\Doutorado\CapI\Dados_analises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar\OneDrive - unb.br\Doutorado\CapI\Analises\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7944" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7944"/>
   </bookViews>
   <sheets>
     <sheet name="Demografia" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="313">
   <si>
     <t>ID</t>
   </si>
@@ -963,6 +963,12 @@
   </si>
   <si>
     <t>BodyMass(min)</t>
+  </si>
+  <si>
+    <t>AdultSexratio</t>
+  </si>
+  <si>
+    <t>BirthSexratio</t>
   </si>
 </sst>
 </file>
@@ -1305,9 +1311,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1390,13 +1396,13 @@
         <v>241</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>243</v>
       </c>
       <c r="R1" t="s">
-        <v>244</v>
+        <v>312</v>
       </c>
       <c r="S1" t="s">
         <v>245</v>
@@ -6401,7 +6407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/Shortfall_data.xlsx
+++ b/Shortfall_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7944"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7944" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Demografia" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="Metadados" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Demografia!$A$1:$AG$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Historia_de_vida!$A$1:$AN$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Demografia!$B$1:$B$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Historia_de_vida!$B$1:$B$162</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1311,9 +1311,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2089,6 +2089,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B26"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2098,9 +2099,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN162"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6398,6 +6399,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B162"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Shortfall_data.xlsx
+++ b/Shortfall_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7944" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7944"/>
   </bookViews>
   <sheets>
     <sheet name="Demografia" sheetId="1" r:id="rId1"/>
@@ -1311,9 +1311,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1328,21 +1328,22 @@
     <col min="9" max="10" width="22.33203125" customWidth="1"/>
     <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="8.109375" customWidth="1"/>
@@ -2099,7 +2100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
